--- a/bms-site/src/main/webapp/WEB-INF/templates/dispatch/dispatch_template_new.xlsx
+++ b/bms-site/src/main/webapp/WEB-INF/templates/dispatch/dispatch_template_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\user\yangshuaishuai\Documents\WeChat Files\wxyss2012\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_bms\bms\bms-site\src\main\webapp\WEB-INF\templates\dispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -312,10 +312,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>时效</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>温度类型</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -341,6 +337,10 @@
   </si>
   <si>
     <t>常规模板不允许有值，特殊模板至少有一条数据包含特殊字段的值。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流产品类型</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -777,7 +777,7 @@
     <col min="9" max="9" width="12.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.25" style="2" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="15" style="4" customWidth="1"/>
     <col min="13" max="13" width="12.125" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="15.5" style="2" customWidth="1"/>
@@ -825,19 +825,19 @@
         <v>2</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -864,7 +864,7 @@
     <row r="7" spans="4:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D7" s="5"/>
       <c r="E7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -885,7 +885,7 @@
     <row r="9" spans="4:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D9" s="8"/>
       <c r="E9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -906,7 +906,7 @@
     <row r="11" spans="4:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
